--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.3396013887877</v>
+        <v>18.298577</v>
       </c>
       <c r="H2">
-        <v>14.3396013887877</v>
+        <v>54.895731</v>
       </c>
       <c r="I2">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130613</v>
       </c>
       <c r="J2">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130614</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N2">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q2">
-        <v>185.2037517962687</v>
+        <v>249.2041358883927</v>
       </c>
       <c r="R2">
-        <v>185.2037517962687</v>
+        <v>2242.837222995534</v>
       </c>
       <c r="S2">
-        <v>0.05494948902420082</v>
+        <v>0.0647987215569837</v>
       </c>
       <c r="T2">
-        <v>0.05494948902420082</v>
+        <v>0.06479872155698371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.3396013887877</v>
+        <v>18.298577</v>
       </c>
       <c r="H3">
-        <v>14.3396013887877</v>
+        <v>54.895731</v>
       </c>
       <c r="I3">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130613</v>
       </c>
       <c r="J3">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130614</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N3">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q3">
-        <v>156.4733207745464</v>
+        <v>199.9574500869477</v>
       </c>
       <c r="R3">
-        <v>156.4733207745464</v>
+        <v>1799.617050782529</v>
       </c>
       <c r="S3">
-        <v>0.04642524214055591</v>
+        <v>0.05199346746488766</v>
       </c>
       <c r="T3">
-        <v>0.04642524214055591</v>
+        <v>0.05199346746488766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.3396013887877</v>
+        <v>18.298577</v>
       </c>
       <c r="H4">
-        <v>14.3396013887877</v>
+        <v>54.895731</v>
       </c>
       <c r="I4">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130613</v>
       </c>
       <c r="J4">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130614</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N4">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q4">
-        <v>102.0562642845555</v>
+        <v>137.1052965230006</v>
       </c>
       <c r="R4">
-        <v>102.0562642845555</v>
+        <v>1233.947668707006</v>
       </c>
       <c r="S4">
-        <v>0.03027983785298298</v>
+        <v>0.03565048349502699</v>
       </c>
       <c r="T4">
-        <v>0.03027983785298298</v>
+        <v>0.03565048349502699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.3396013887877</v>
+        <v>18.298577</v>
       </c>
       <c r="H5">
-        <v>14.3396013887877</v>
+        <v>54.895731</v>
       </c>
       <c r="I5">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130613</v>
       </c>
       <c r="J5">
-        <v>0.1707651292498382</v>
+        <v>0.1985220285130614</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N5">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q5">
-        <v>131.8196514374946</v>
+        <v>177.2128495346806</v>
       </c>
       <c r="R5">
-        <v>131.8196514374946</v>
+        <v>1594.915645812126</v>
       </c>
       <c r="S5">
-        <v>0.03911056023209851</v>
+        <v>0.04607935599616297</v>
       </c>
       <c r="T5">
-        <v>0.03911056023209851</v>
+        <v>0.04607935599616297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9859587006958</v>
+        <v>12.03986033333333</v>
       </c>
       <c r="H6">
-        <v>11.9859587006958</v>
+        <v>36.119581</v>
       </c>
       <c r="I6">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="J6">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N6">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q6">
-        <v>154.8051762428846</v>
+        <v>163.9681047649371</v>
       </c>
       <c r="R6">
-        <v>154.8051762428846</v>
+        <v>1475.712942884434</v>
       </c>
       <c r="S6">
-        <v>0.04593030783850048</v>
+        <v>0.04263542226942782</v>
       </c>
       <c r="T6">
-        <v>0.04593030783850048</v>
+        <v>0.04263542226942782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9859587006958</v>
+        <v>12.03986033333333</v>
       </c>
       <c r="H7">
-        <v>11.9859587006958</v>
+        <v>36.119581</v>
       </c>
       <c r="I7">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="J7">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N7">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q7">
-        <v>130.7904389888341</v>
+        <v>131.5654092477421</v>
       </c>
       <c r="R7">
-        <v>130.7904389888341</v>
+        <v>1184.088683229679</v>
       </c>
       <c r="S7">
-        <v>0.03880519547786041</v>
+        <v>0.03420998728605826</v>
       </c>
       <c r="T7">
-        <v>0.03880519547786041</v>
+        <v>0.03420998728605826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9859587006958</v>
+        <v>12.03986033333333</v>
       </c>
       <c r="H8">
-        <v>11.9859587006958</v>
+        <v>36.119581</v>
       </c>
       <c r="I8">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="J8">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N8">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q8">
-        <v>85.30517241702724</v>
+        <v>90.2107645363451</v>
       </c>
       <c r="R8">
-        <v>85.30517241702724</v>
+        <v>811.896880827106</v>
       </c>
       <c r="S8">
-        <v>0.02530983087531295</v>
+        <v>0.0234568426875997</v>
       </c>
       <c r="T8">
-        <v>0.02530983087531295</v>
+        <v>0.0234568426875997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9859587006958</v>
+        <v>12.03986033333333</v>
       </c>
       <c r="H9">
-        <v>11.9859587006958</v>
+        <v>36.119581</v>
       </c>
       <c r="I9">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="J9">
-        <v>0.1427364493065996</v>
+        <v>0.1306209491802164</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N9">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O9">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P9">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q9">
-        <v>110.1833206678489</v>
+        <v>116.6002120093584</v>
       </c>
       <c r="R9">
-        <v>110.1833206678489</v>
+        <v>1049.401908084226</v>
       </c>
       <c r="S9">
-        <v>0.03269111511492578</v>
+        <v>0.03031869693713058</v>
       </c>
       <c r="T9">
-        <v>0.03269111511492578</v>
+        <v>0.03031869693713058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.811285991504</v>
+        <v>54.94736600000001</v>
       </c>
       <c r="H10">
-        <v>50.811285991504</v>
+        <v>164.842098</v>
       </c>
       <c r="I10">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174921</v>
       </c>
       <c r="J10">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174922</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N10">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O10">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P10">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q10">
-        <v>656.2553967907269</v>
+        <v>748.3156129229749</v>
       </c>
       <c r="R10">
-        <v>656.2553967907269</v>
+        <v>6734.840516306774</v>
       </c>
       <c r="S10">
-        <v>0.1947093316051879</v>
+        <v>0.1945790139705221</v>
       </c>
       <c r="T10">
-        <v>0.1947093316051879</v>
+        <v>0.1945790139705221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.811285991504</v>
+        <v>54.94736600000001</v>
       </c>
       <c r="H11">
-        <v>50.811285991504</v>
+        <v>164.842098</v>
       </c>
       <c r="I11">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174921</v>
       </c>
       <c r="J11">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174922</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N11">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P11">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q11">
-        <v>554.4513014240754</v>
+        <v>600.4365910176648</v>
       </c>
       <c r="R11">
-        <v>554.4513014240754</v>
+        <v>5403.929319158983</v>
       </c>
       <c r="S11">
-        <v>0.1645043116381939</v>
+        <v>0.1561271177754573</v>
       </c>
       <c r="T11">
-        <v>0.1645043116381939</v>
+        <v>0.1561271177754573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.811285991504</v>
+        <v>54.94736600000001</v>
       </c>
       <c r="H12">
-        <v>50.811285991504</v>
+        <v>164.842098</v>
       </c>
       <c r="I12">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174921</v>
       </c>
       <c r="J12">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174922</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N12">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O12">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P12">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q12">
-        <v>361.6286039751254</v>
+        <v>411.7027738598388</v>
       </c>
       <c r="R12">
-        <v>361.6286039751254</v>
+        <v>3705.324964738548</v>
       </c>
       <c r="S12">
-        <v>0.1072943005324613</v>
+        <v>0.1070520491663482</v>
       </c>
       <c r="T12">
-        <v>0.1072943005324613</v>
+        <v>0.1070520491663481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.811285991504</v>
+        <v>54.94736600000001</v>
       </c>
       <c r="H13">
-        <v>50.811285991504</v>
+        <v>164.842098</v>
       </c>
       <c r="I13">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174921</v>
       </c>
       <c r="J13">
-        <v>0.6050932368646008</v>
+        <v>0.5961262758174922</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N13">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O13">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P13">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q13">
-        <v>467.0929007641799</v>
+        <v>532.1386085532787</v>
       </c>
       <c r="R13">
-        <v>467.0929007641799</v>
+        <v>4789.247476979508</v>
       </c>
       <c r="S13">
-        <v>0.1385852930887577</v>
+        <v>0.1383680949051646</v>
       </c>
       <c r="T13">
-        <v>0.1385852930887577</v>
+        <v>0.1383680949051646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.83580952956235</v>
+        <v>6.888234666666667</v>
       </c>
       <c r="H14">
-        <v>6.83580952956235</v>
+        <v>20.664704</v>
       </c>
       <c r="I14">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923014</v>
       </c>
       <c r="J14">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N14">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O14">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P14">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q14">
-        <v>88.28819833371013</v>
+        <v>93.8092928156729</v>
       </c>
       <c r="R14">
-        <v>88.28819833371013</v>
+        <v>844.2836353410561</v>
       </c>
       <c r="S14">
-        <v>0.02619488718911801</v>
+        <v>0.02439254157219416</v>
       </c>
       <c r="T14">
-        <v>0.02619488718911801</v>
+        <v>0.02439254157219416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.83580952956235</v>
+        <v>6.888234666666667</v>
       </c>
       <c r="H15">
-        <v>6.83580952956235</v>
+        <v>20.664704</v>
       </c>
       <c r="I15">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923014</v>
       </c>
       <c r="J15">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N15">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P15">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q15">
-        <v>74.59215833637188</v>
+        <v>75.2710901807929</v>
       </c>
       <c r="R15">
-        <v>74.59215833637188</v>
+        <v>677.4398116271361</v>
       </c>
       <c r="S15">
-        <v>0.02213130644515645</v>
+        <v>0.01957218886648096</v>
       </c>
       <c r="T15">
-        <v>0.02213130644515645</v>
+        <v>0.01957218886648096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.83580952956235</v>
+        <v>6.888234666666667</v>
       </c>
       <c r="H16">
-        <v>6.83580952956235</v>
+        <v>20.664704</v>
       </c>
       <c r="I16">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923014</v>
       </c>
       <c r="J16">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N16">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O16">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P16">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q16">
-        <v>48.65108624939803</v>
+        <v>51.61130597714489</v>
       </c>
       <c r="R16">
-        <v>48.65108624939803</v>
+        <v>464.501753794304</v>
       </c>
       <c r="S16">
-        <v>0.01443465536711986</v>
+        <v>0.01342010891305224</v>
       </c>
       <c r="T16">
-        <v>0.01443465536711986</v>
+        <v>0.01342010891305224</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.83580952956235</v>
+        <v>6.888234666666667</v>
       </c>
       <c r="H17">
-        <v>6.83580952956235</v>
+        <v>20.664704</v>
       </c>
       <c r="I17">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923014</v>
       </c>
       <c r="J17">
-        <v>0.08140518457896116</v>
+        <v>0.07473074648923016</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N17">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O17">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P17">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q17">
-        <v>62.8395451901884</v>
+        <v>66.70921424893154</v>
       </c>
       <c r="R17">
-        <v>62.8395451901884</v>
+        <v>600.382928240384</v>
       </c>
       <c r="S17">
-        <v>0.01864433557756683</v>
+        <v>0.01734590713750279</v>
       </c>
       <c r="T17">
-        <v>0.01864433557756683</v>
+        <v>0.01734590713750279</v>
       </c>
     </row>
   </sheetData>
